--- a/biology/Zoologie/Gilmoreosaurus/Gilmoreosaurus.xlsx
+++ b/biology/Zoologie/Gilmoreosaurus/Gilmoreosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilmoreosaurus mongoliensis
-Gilmoreosaurus est un genre éteint de dinosaures ornithopodes, un membre basal de la super-famille des hadrosauroïdes ayant vécu en Asie, et en particulier en Mongolie, vers la fin du Crétacé supérieur, au Campanien, soit il y a environ entre 83,6 à 72,1 millions d'années[1],[2].
-L'espèce type et seule espèce valide est Gilmoreosaurus mongoliensis, décrite en 1979 par Michael Brett-Surman, à partir de restes fossiles retrouvés en Mongolie, dans des couches géologiques de la formation d'Iren Dabasu[2]. Ses fossiles avaient été attribués initialement au genre Mandschurosaurus.
+Gilmoreosaurus est un genre éteint de dinosaures ornithopodes, un membre basal de la super-famille des hadrosauroïdes ayant vécu en Asie, et en particulier en Mongolie, vers la fin du Crétacé supérieur, au Campanien, soit il y a environ entre 83,6 à 72,1 millions d'années,.
+L'espèce type et seule espèce valide est Gilmoreosaurus mongoliensis, décrite en 1979 par Michael Brett-Surman, à partir de restes fossiles retrouvés en Mongolie, dans des couches géologiques de la formation d'Iren Dabasu. Ses fossiles avaient été attribués initialement au genre Mandschurosaurus.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Gilmoreosaurus rend hommage au paléontologue américain Charles Whitney Gilmore, un pionnier de la paléontologie en Asie[3]. Le nom d'espèce mongoliensis rappelle le pays où a été découverte l'espèce type.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Gilmoreosaurus rend hommage au paléontologue américain Charles Whitney Gilmore, un pionnier de la paléontologie en Asie. Le nom d'espèce mongoliensis rappelle le pays où a été découverte l'espèce type.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'autres spécimens fossiles, découverts en Ouzbékistan, ont été décrits sous d'autres noms d’espèces :
 G. atavus de la formation de Khodzhakul, âgée d'environ 120 Ma (millions d'années) ;
@@ -578,12 +594,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilmoreosaurus est un hadrosauroïde d'aspect élancé, dont la longueur totale est estimée à 8 mètres et la masse à environ 2 tonnes par Thomas Holtz en 2011[4].
-Pathologie
-En 2003, la présence de tumeurs, dont des hémangiomes, fibromes, cancers métastatiques et des ostéoblastomes a été identifiée sur les vertèbres de Gilmoreosaurus par tomodensitométrie et fluoroscopie[5]. 
-Ces types de tumeurs ont été observés également sur les genres Bactrosaurus, Brachylophosaurus et Edmontosaurus[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilmoreosaurus est un hadrosauroïde d'aspect élancé, dont la longueur totale est estimée à 8 mètres et la masse à environ 2 tonnes par Thomas Holtz en 2011.
 </t>
         </is>
       </c>
@@ -609,12 +624,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pathologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, la présence de tumeurs, dont des hémangiomes, fibromes, cancers métastatiques et des ostéoblastomes a été identifiée sur les vertèbres de Gilmoreosaurus par tomodensitométrie et fluoroscopie. 
+Ces types de tumeurs ont été observés également sur les genres Bactrosaurus, Brachylophosaurus et Edmontosaurus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gilmoreosaurus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilmoreosaurus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilmoreosaurus est un dinosaure ornithopode. Il a été classé parmi la super-famille des Hadrosauroidea par Albert Prieto-Márquez et Mark Norell dans une étude publiée en 2010[2]. D'autres analyses phylogénétiques ultérieures ont fourni le même résultat[6],[7], dont celle construite par Prieto-Márquez et ses collègues en 2016 qui conduit au cladogramme suivant[8] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilmoreosaurus est un dinosaure ornithopode. Il a été classé parmi la super-famille des Hadrosauroidea par Albert Prieto-Márquez et Mark Norell dans une étude publiée en 2010. D'autres analyses phylogénétiques ultérieures ont fourni le même résultat dont celle construite par Prieto-Márquez et ses collègues en 2016 qui conduit au cladogramme suivant :
 </t>
         </is>
       </c>
